--- a/pred_ohlcv/54_21/2020-01-12 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 SOC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>404977193.8398786</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>404977596.3600786</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>404393339.9983786</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>403299544.0370786</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>402467361.7415144</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>402480250.8734192</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>402480250.8734192</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>400024553.8588331</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>400024553.8588331</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>399816247.3507332</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>399816247.3507332</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>399862362.6981332</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>399909937.0110332</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>400001153.6709332</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>399928628.9452332</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>400028825.7287332</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>400053697.8308332</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>400053697.8308332</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>400053697.8308332</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>400052814.8764332</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>400069029.7607332</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>400123627.2816532</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>400123627.2816532</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>400226896.0906532</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>400224302.8742532</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>399986709.4031901</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>400125648.6384901</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>400106980.3124167</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>400136908.5690168</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>400136811.5690168</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>399762351.4124278</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>399762413.4471278</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>399762448.4471278</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>399775247.8548278</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>399546857.3099884</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>399547150.0493885</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>399545942.8021885</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>399694843.5087885</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>399648445.4309885</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>401054558.2475767</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>401277216.3194767</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>401705013.4782767</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>405012521.3304414</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>405128967.4606414</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>405106281.0615414</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>405106281.0615414</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>404926536.8921415</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>404954566.8921415</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>403895895.7513087</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>404028064.7423354</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>404023268.8300131</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>403974543.2395131</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>403934686.9604131</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>404105647.8461131</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>404216877.5694131</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>404219809.8518131</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>404203380.3010131</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>404203409.9923131</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>404196767.9923131</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>404169024.9405131</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>404169024.9405131</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>404209893.8156131</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>404221324.5407131</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>404221324.5407131</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>403884383.8145131</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>398139041.3211571</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>400168980.7245137</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>400043241.0652949</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>400012989.3018137</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>399901495.6478137</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>399796973.0639138</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>399833418.3597137</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>399961335.0304137</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>399961335.0304137</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>399917917.8088138</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>399917917.8088138</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>399938445.2479138</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>399929711.7237138</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>399956649.4847137</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>399997598.1448137</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>400760422.3421137</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>400756401.6145137</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>400753401.6145137</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>400753401.6145137</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>400746056.7385137</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>400847493.8889137</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>400863143.1613137</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>400909817.0269137</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>400895801.0509137</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>400899181.0509137</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>400909181.0509137</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>400908731.0509137</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>400911731.0509137</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>400911731.0509137</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>400897928.5554137</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>400897828.5554137</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>400897260.0022137</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>400819249.0544137</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>400549541.1751137</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>400640196.1930137</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>400618817.6873137</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>400624937.6892241</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>400624937.6892241</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>400611976.8407241</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>400614347.3834241</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>400614347.3834241</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>400579669.5702241</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>400579669.5702241</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>400690793.1506241</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>400689327.7863241</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>400523251.3180241</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>400419453.5254241</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>400419553.5254241</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>400416907.838604</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>400412382.990204</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>400311908.456904</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>400311908.456904</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>400311908.456904</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>400311908.456904</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>400313020.568104</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>400475465.226204</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>400524011.8187039</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>400534066.284004</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>400392518.214404</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>400399707.721804</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>400398810.783404</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>400398810.783404</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>400397060.838204</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>400423005.287304</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>400443294.253204</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>400443294.253204</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>400505963.5142078</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>400495963.5142078</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>400496068.7717078</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>400496068.7717078</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>400496068.7717078</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>400496035.7717078</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>400496035.7717078</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>400493813.1969078</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>400493813.1969078</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>400422836.6624078</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>400420490.0504078</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>400410023.1954077</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>400411266.0525506</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>400411266.0525506</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>400411326.8073506</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>400411208.8073506</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>400411208.8073506</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>400371344.6141506</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>400371344.6141506</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>400371374.6141506</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>400313183.1501507</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>400315524.9863507</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>400312678.7249507</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>400312678.7249507</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>400269066.5738507</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 SOC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>405614726.4957666</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -678,7 +678,7 @@
         <v>403323556.2910189</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>403262724.1997189</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>402467361.7415144</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>402480250.8734192</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>402480250.8734192</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>399909937.0110332</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>400001153.6709332</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>399928628.9452332</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>400052814.8764332</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>400069029.7607332</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>400123627.2816532</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>400123627.2816532</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>400226896.0906532</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>400224302.8742532</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>400224302.8742532</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>400224346.5563532</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>400227352.5748532</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>400064983.8214532</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>400087226.1089532</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>400087226.1089532</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>399934755.6112532</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>399938932.8585532</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>399904909.6605485</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>399986709.4031901</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>399986709.4031901</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>399986709.4031901</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>400125648.6384901</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>400106980.3124167</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>400136908.5690168</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>400136811.5690168</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>400136873.6037562</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>400153180.1499562</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>400153180.1499562</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>400172875.9454278</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>400164543.9454278</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>400164543.9454278</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>399964375.4367278</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>399964542.1810278</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>399762351.4124278</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>399762413.4471278</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>401054558.2475767</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>401277216.3194767</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>401705013.4782767</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>402745510.5916658</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>402745510.5916658</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>401900413.5311123</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>402645763.1319395</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>402645763.1319395</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>402428921.8466395</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>402429338.6512395</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>402418500.1942395</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>402418500.1942395</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>402397479.7224395</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>402642517.6761395</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>402839651.8752395</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>402839651.8752395</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>403023398.6599771</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>403157652.3635771</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>403287330.0604814</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>405111503.0513414</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>405012521.3304414</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>404028064.7423354</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>404023268.8300131</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>403974543.2395131</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>403934686.9604131</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>404056474.2653131</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>404105647.8461131</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>404105647.8461131</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>404224657.2055131</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>404216877.5694131</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>404203380.3010131</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>398519966.0953571</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>398875756.6035137</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>399142498.0015137</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>399394225.2899137</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>399521197.9022136</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>399807647.9140136</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>400168980.7245137</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>400043241.0652949</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>400012989.3018137</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>399997598.1448137</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>399989452.5426137</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>399910133.8766137</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>399946654.4014137</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>399946654.4014137</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>399967795.0930138</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>399990295.0930138</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>400685141.1088137</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>400895801.0509137</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>400899181.0509137</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>400909181.0509137</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>400908731.0509137</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>400911731.0509137</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>400911731.0509137</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>400897928.5554137</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>400897828.5554137</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>400897260.0022137</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>400819249.0544137</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
